--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H2">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I2">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J2">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.2721811501618</v>
+        <v>31.3268725</v>
       </c>
       <c r="N2">
-        <v>31.2721811501618</v>
+        <v>62.653745</v>
       </c>
       <c r="O2">
-        <v>0.4177674394845799</v>
+        <v>0.3698514072309863</v>
       </c>
       <c r="P2">
-        <v>0.4177674394845799</v>
+        <v>0.3128748624793679</v>
       </c>
       <c r="Q2">
-        <v>38.33150600812627</v>
+        <v>38.398788659385</v>
       </c>
       <c r="R2">
-        <v>38.33150600812627</v>
+        <v>153.59515463754</v>
       </c>
       <c r="S2">
-        <v>0.07980354747689389</v>
+        <v>0.03867413337864332</v>
       </c>
       <c r="T2">
-        <v>0.07980354747689389</v>
+        <v>0.0310124944063736</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H3">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I3">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J3">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.35525565151902</v>
+        <v>1.464976</v>
       </c>
       <c r="N3">
-        <v>1.35525565151902</v>
+        <v>4.394928</v>
       </c>
       <c r="O3">
-        <v>0.01810496302331562</v>
+        <v>0.01729580363183785</v>
       </c>
       <c r="P3">
-        <v>0.01810496302331562</v>
+        <v>0.02194701200393884</v>
       </c>
       <c r="Q3">
-        <v>1.661188578414193</v>
+        <v>1.795688472096</v>
       </c>
       <c r="R3">
-        <v>1.661188578414193</v>
+        <v>10.774130832576</v>
       </c>
       <c r="S3">
-        <v>0.00345847986138208</v>
+        <v>0.001808564746465239</v>
       </c>
       <c r="T3">
-        <v>0.00345847986138208</v>
+        <v>0.002175411541902479</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H4">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I4">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J4">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.727483065493289</v>
+        <v>1.155583</v>
       </c>
       <c r="N4">
-        <v>0.727483065493289</v>
+        <v>3.466749</v>
       </c>
       <c r="O4">
-        <v>0.009718501439991558</v>
+        <v>0.01364304715455412</v>
       </c>
       <c r="P4">
-        <v>0.009718501439991558</v>
+        <v>0.01731195184941436</v>
       </c>
       <c r="Q4">
-        <v>0.8917037593849396</v>
+        <v>1.416451239918</v>
       </c>
       <c r="R4">
-        <v>0.8917037593849396</v>
+        <v>8.498707439507999</v>
       </c>
       <c r="S4">
-        <v>0.001856465626013094</v>
+        <v>0.001426608132429842</v>
       </c>
       <c r="T4">
-        <v>0.001856465626013094</v>
+        <v>0.001715979371557139</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H5">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I5">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J5">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.486621693870866</v>
+        <v>0.5545833333333333</v>
       </c>
       <c r="N5">
-        <v>0.486621693870866</v>
+        <v>1.66375</v>
       </c>
       <c r="O5">
-        <v>0.006500816110967973</v>
+        <v>0.006547523256915751</v>
       </c>
       <c r="P5">
-        <v>0.006500816110967973</v>
+        <v>0.008308291107739021</v>
       </c>
       <c r="Q5">
-        <v>0.5964707831771809</v>
+        <v>0.6797783024999999</v>
       </c>
       <c r="R5">
-        <v>0.5964707831771809</v>
+        <v>4.078669815</v>
       </c>
       <c r="S5">
-        <v>0.001241810964947971</v>
+        <v>0.0006846527626690453</v>
       </c>
       <c r="T5">
-        <v>0.001241810964947971</v>
+        <v>0.0008235267910737668</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H6">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I6">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J6">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.1245676545833</v>
+        <v>27.67414933333333</v>
       </c>
       <c r="N6">
-        <v>26.1245676545833</v>
+        <v>83.022448</v>
       </c>
       <c r="O6">
-        <v>0.3490000804322047</v>
+        <v>0.3267266170554943</v>
       </c>
       <c r="P6">
-        <v>0.3490000804322047</v>
+        <v>0.4145903329593541</v>
       </c>
       <c r="Q6">
-        <v>32.0218796764734</v>
+        <v>33.921477848736</v>
       </c>
       <c r="R6">
-        <v>32.0218796764734</v>
+        <v>203.528867092416</v>
       </c>
       <c r="S6">
-        <v>0.06666734133845596</v>
+        <v>0.03416471728730107</v>
       </c>
       <c r="T6">
-        <v>0.06666734133845596</v>
+        <v>0.04109464173615548</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H7">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I7">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J7">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.8893682450944</v>
+        <v>22.525075</v>
       </c>
       <c r="N7">
-        <v>14.8893682450944</v>
+        <v>45.05015</v>
       </c>
       <c r="O7">
-        <v>0.1989081995089401</v>
+        <v>0.2659356016702117</v>
       </c>
       <c r="P7">
-        <v>0.1989081995089401</v>
+        <v>0.2249675496001858</v>
       </c>
       <c r="Q7">
-        <v>18.25046694387953</v>
+        <v>27.61002058095</v>
       </c>
       <c r="R7">
-        <v>18.25046694387953</v>
+        <v>110.4400823238</v>
       </c>
       <c r="S7">
-        <v>0.03799621139129272</v>
+        <v>0.0278080026952561</v>
       </c>
       <c r="T7">
-        <v>0.03799621139129272</v>
+        <v>0.02229902657664425</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H8">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I8">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J8">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.2721811501618</v>
+        <v>31.3268725</v>
       </c>
       <c r="N8">
-        <v>31.2721811501618</v>
+        <v>62.653745</v>
       </c>
       <c r="O8">
-        <v>0.4177674394845799</v>
+        <v>0.3698514072309863</v>
       </c>
       <c r="P8">
-        <v>0.4177674394845799</v>
+        <v>0.3128748624793679</v>
       </c>
       <c r="Q8">
-        <v>16.26721338969536</v>
+        <v>19.32747946905416</v>
       </c>
       <c r="R8">
-        <v>16.26721338969536</v>
+        <v>115.964876814325</v>
       </c>
       <c r="S8">
-        <v>0.03386721449937562</v>
+        <v>0.01946607028387345</v>
       </c>
       <c r="T8">
-        <v>0.03386721449937562</v>
+        <v>0.0234145413117158</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H9">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I9">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J9">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.35525565151902</v>
+        <v>1.464976</v>
       </c>
       <c r="N9">
-        <v>1.35525565151902</v>
+        <v>4.394928</v>
       </c>
       <c r="O9">
-        <v>0.01810496302331562</v>
+        <v>0.01729580363183785</v>
       </c>
       <c r="P9">
-        <v>0.01810496302331562</v>
+        <v>0.02194701200393884</v>
       </c>
       <c r="Q9">
-        <v>0.7049790603024965</v>
+        <v>0.9038340345866667</v>
       </c>
       <c r="R9">
-        <v>0.7049790603024965</v>
+        <v>8.134506311279999</v>
       </c>
       <c r="S9">
-        <v>0.001467717701911823</v>
+        <v>0.0009103151225896486</v>
       </c>
       <c r="T9">
-        <v>0.001467717701911823</v>
+        <v>0.001642443292384462</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H10">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I10">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J10">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.727483065493289</v>
+        <v>1.155583</v>
       </c>
       <c r="N10">
-        <v>0.727483065493289</v>
+        <v>3.466749</v>
       </c>
       <c r="O10">
-        <v>0.009718501439991558</v>
+        <v>0.01364304715455412</v>
       </c>
       <c r="P10">
-        <v>0.009718501439991558</v>
+        <v>0.01731195184941436</v>
       </c>
       <c r="Q10">
-        <v>0.3784233087850295</v>
+        <v>0.7129504136516667</v>
       </c>
       <c r="R10">
-        <v>0.3784233087850295</v>
+        <v>6.416553722864999</v>
       </c>
       <c r="S10">
-        <v>0.0007878511865040494</v>
+        <v>0.0007180627398042794</v>
       </c>
       <c r="T10">
-        <v>0.0007878511865040494</v>
+        <v>0.001295570403299107</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H11">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I11">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J11">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.486621693870866</v>
+        <v>0.5545833333333333</v>
       </c>
       <c r="N11">
-        <v>0.486621693870866</v>
+        <v>1.66375</v>
       </c>
       <c r="O11">
-        <v>0.006500816110967973</v>
+        <v>0.006547523256915751</v>
       </c>
       <c r="P11">
-        <v>0.006500816110967973</v>
+        <v>0.008308291107739021</v>
       </c>
       <c r="Q11">
-        <v>0.2531316538568795</v>
+        <v>0.3421566576388889</v>
       </c>
       <c r="R11">
-        <v>0.2531316538568795</v>
+        <v>3.07940991875</v>
       </c>
       <c r="S11">
-        <v>0.0005270026163905375</v>
+        <v>0.0003446101472443981</v>
       </c>
       <c r="T11">
-        <v>0.0005270026163905375</v>
+        <v>0.000621765596092734</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H12">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I12">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J12">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.1245676545833</v>
+        <v>27.67414933333333</v>
       </c>
       <c r="N12">
-        <v>26.1245676545833</v>
+        <v>83.022448</v>
       </c>
       <c r="O12">
-        <v>0.3490000804322047</v>
+        <v>0.3267266170554943</v>
       </c>
       <c r="P12">
-        <v>0.3490000804322047</v>
+        <v>0.4145903329593541</v>
       </c>
       <c r="Q12">
-        <v>13.58951953846817</v>
+        <v>17.07388929627555</v>
       </c>
       <c r="R12">
-        <v>13.58951953846817</v>
+        <v>153.66500366648</v>
       </c>
       <c r="S12">
-        <v>0.02829244088260998</v>
+        <v>0.01719632037858475</v>
       </c>
       <c r="T12">
-        <v>0.02829244088260998</v>
+        <v>0.03102659766779746</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H13">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I13">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J13">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.8893682450944</v>
+        <v>22.525075</v>
       </c>
       <c r="N13">
-        <v>14.8893682450944</v>
+        <v>45.05015</v>
       </c>
       <c r="O13">
-        <v>0.1989081995089401</v>
+        <v>0.2659356016702117</v>
       </c>
       <c r="P13">
-        <v>0.1989081995089401</v>
+        <v>0.2249675496001858</v>
       </c>
       <c r="Q13">
-        <v>7.745175474575151</v>
+        <v>13.89710781379167</v>
       </c>
       <c r="R13">
-        <v>7.745175474575151</v>
+        <v>83.38264688275</v>
       </c>
       <c r="S13">
-        <v>0.01612492028283723</v>
+        <v>0.01399675927111845</v>
       </c>
       <c r="T13">
-        <v>0.01612492028283723</v>
+        <v>0.01683584274609592</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H14">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I14">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J14">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.2721811501618</v>
+        <v>31.3268725</v>
       </c>
       <c r="N14">
-        <v>31.2721811501618</v>
+        <v>62.653745</v>
       </c>
       <c r="O14">
-        <v>0.4177674394845799</v>
+        <v>0.3698514072309863</v>
       </c>
       <c r="P14">
-        <v>0.4177674394845799</v>
+        <v>0.3128748624793679</v>
       </c>
       <c r="Q14">
-        <v>19.52067102774655</v>
+        <v>21.0216158492725</v>
       </c>
       <c r="R14">
-        <v>19.52067102774655</v>
+        <v>126.129695095635</v>
       </c>
       <c r="S14">
-        <v>0.0406406885451707</v>
+        <v>0.02117235474277558</v>
       </c>
       <c r="T14">
-        <v>0.0406406885451707</v>
+        <v>0.02546692617264998</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H15">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I15">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J15">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.35525565151902</v>
+        <v>1.464976</v>
       </c>
       <c r="N15">
-        <v>1.35525565151902</v>
+        <v>4.394928</v>
       </c>
       <c r="O15">
-        <v>0.01810496302331562</v>
+        <v>0.01729580363183785</v>
       </c>
       <c r="P15">
-        <v>0.01810496302331562</v>
+        <v>0.02194701200393884</v>
       </c>
       <c r="Q15">
-        <v>0.8459755206956593</v>
+        <v>0.9830589600160002</v>
       </c>
       <c r="R15">
-        <v>0.8459755206956593</v>
+        <v>8.847530640144001</v>
       </c>
       <c r="S15">
-        <v>0.001761262592078005</v>
+        <v>0.0009901081431493808</v>
       </c>
       <c r="T15">
-        <v>0.001761262592078005</v>
+        <v>0.00178641048368477</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H16">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I16">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J16">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.727483065493289</v>
+        <v>1.155583</v>
       </c>
       <c r="N16">
-        <v>0.727483065493289</v>
+        <v>3.466749</v>
       </c>
       <c r="O16">
-        <v>0.009718501439991558</v>
+        <v>0.01364304715455412</v>
       </c>
       <c r="P16">
-        <v>0.009718501439991558</v>
+        <v>0.01731195184941436</v>
       </c>
       <c r="Q16">
-        <v>0.4541083185583177</v>
+        <v>0.7754435719030002</v>
       </c>
       <c r="R16">
-        <v>0.4541083185583177</v>
+        <v>6.978992147127001</v>
       </c>
       <c r="S16">
-        <v>0.0009454221483507174</v>
+        <v>0.0007810040153456377</v>
       </c>
       <c r="T16">
-        <v>0.0009454221483507174</v>
+        <v>0.001409132699762929</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H17">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I17">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J17">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.486621693870866</v>
+        <v>0.5545833333333333</v>
       </c>
       <c r="N17">
-        <v>0.486621693870866</v>
+        <v>1.66375</v>
       </c>
       <c r="O17">
-        <v>0.006500816110967973</v>
+        <v>0.006547523256915751</v>
       </c>
       <c r="P17">
-        <v>0.006500816110967973</v>
+        <v>0.008308291107739021</v>
       </c>
       <c r="Q17">
-        <v>0.3037582174203035</v>
+        <v>0.3721481545833334</v>
       </c>
       <c r="R17">
-        <v>0.3037582174203035</v>
+        <v>3.34933339125</v>
       </c>
       <c r="S17">
-        <v>0.0006324036243256075</v>
+        <v>0.0003748167030642555</v>
       </c>
       <c r="T17">
-        <v>0.0006324036243256075</v>
+        <v>0.0006762660144217459</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H18">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I18">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J18">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>26.1245676545833</v>
+        <v>27.67414933333333</v>
       </c>
       <c r="N18">
-        <v>26.1245676545833</v>
+        <v>83.022448</v>
       </c>
       <c r="O18">
-        <v>0.3490000804322047</v>
+        <v>0.3267266170554943</v>
       </c>
       <c r="P18">
-        <v>0.3490000804322047</v>
+        <v>0.4145903329593541</v>
       </c>
       <c r="Q18">
-        <v>16.30743594373782</v>
+        <v>18.57048884278933</v>
       </c>
       <c r="R18">
-        <v>16.30743594373782</v>
+        <v>167.134399585104</v>
       </c>
       <c r="S18">
-        <v>0.03395095507822189</v>
+        <v>0.01870365153399465</v>
       </c>
       <c r="T18">
-        <v>0.03395095507822189</v>
+        <v>0.0337462118806892</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H19">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I19">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J19">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.8893682450944</v>
+        <v>22.525075</v>
       </c>
       <c r="N19">
-        <v>14.8893682450944</v>
+        <v>45.05015</v>
       </c>
       <c r="O19">
-        <v>0.1989081995089401</v>
+        <v>0.2659356016702117</v>
       </c>
       <c r="P19">
-        <v>0.1989081995089401</v>
+        <v>0.2249675496001858</v>
       </c>
       <c r="Q19">
-        <v>9.294217692326201</v>
+        <v>15.115248853075</v>
       </c>
       <c r="R19">
-        <v>9.294217692326201</v>
+        <v>90.69149311845001</v>
       </c>
       <c r="S19">
-        <v>0.01934991916865721</v>
+        <v>0.01522363518757341</v>
       </c>
       <c r="T19">
-        <v>0.01934991916865721</v>
+        <v>0.01831157649262319</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H20">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I20">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J20">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>31.2721811501618</v>
+        <v>31.3268725</v>
       </c>
       <c r="N20">
-        <v>31.2721811501618</v>
+        <v>62.653745</v>
       </c>
       <c r="O20">
-        <v>0.4177674394845799</v>
+        <v>0.3698514072309863</v>
       </c>
       <c r="P20">
-        <v>0.4177674394845799</v>
+        <v>0.3128748624793679</v>
       </c>
       <c r="Q20">
-        <v>126.5440590437584</v>
+        <v>288.4703257386913</v>
       </c>
       <c r="R20">
-        <v>126.5440590437584</v>
+        <v>1153.881302954765</v>
       </c>
       <c r="S20">
-        <v>0.2634559889631397</v>
+        <v>0.2905388488256939</v>
       </c>
       <c r="T20">
-        <v>0.2634559889631397</v>
+        <v>0.2329809005886285</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H21">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I21">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J21">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.35525565151902</v>
+        <v>1.464976</v>
       </c>
       <c r="N21">
-        <v>1.35525565151902</v>
+        <v>4.394928</v>
       </c>
       <c r="O21">
-        <v>0.01810496302331562</v>
+        <v>0.01729580363183785</v>
       </c>
       <c r="P21">
-        <v>0.01810496302331562</v>
+        <v>0.02194701200393884</v>
       </c>
       <c r="Q21">
-        <v>5.484093046203233</v>
+        <v>13.490082800936</v>
       </c>
       <c r="R21">
-        <v>5.484093046203233</v>
+        <v>80.94049680561599</v>
       </c>
       <c r="S21">
-        <v>0.01141750286794371</v>
+        <v>0.01358681561963359</v>
       </c>
       <c r="T21">
-        <v>0.01141750286794371</v>
+        <v>0.01634274668596713</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H22">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I22">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J22">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.727483065493289</v>
+        <v>1.155583</v>
       </c>
       <c r="N22">
-        <v>0.727483065493289</v>
+        <v>3.466749</v>
       </c>
       <c r="O22">
-        <v>0.009718501439991558</v>
+        <v>0.01364304715455412</v>
       </c>
       <c r="P22">
-        <v>0.009718501439991558</v>
+        <v>0.01731195184941436</v>
       </c>
       <c r="Q22">
-        <v>2.943787628725757</v>
+        <v>10.6410687638255</v>
       </c>
       <c r="R22">
-        <v>2.943787628725757</v>
+        <v>63.846412582953</v>
       </c>
       <c r="S22">
-        <v>0.006128762479123698</v>
+        <v>0.01071737226697437</v>
       </c>
       <c r="T22">
-        <v>0.006128762479123698</v>
+        <v>0.01289126937479519</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H23">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I23">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J23">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.486621693870866</v>
+        <v>0.5545833333333333</v>
       </c>
       <c r="N23">
-        <v>0.486621693870866</v>
+        <v>1.66375</v>
       </c>
       <c r="O23">
-        <v>0.006500816110967973</v>
+        <v>0.006547523256915751</v>
       </c>
       <c r="P23">
-        <v>0.006500816110967973</v>
+        <v>0.008308291107739021</v>
       </c>
       <c r="Q23">
-        <v>1.969133015234212</v>
+        <v>5.106824334791666</v>
       </c>
       <c r="R23">
-        <v>1.969133015234212</v>
+        <v>30.64094600875</v>
       </c>
       <c r="S23">
-        <v>0.004099598905303857</v>
+        <v>0.005143443643938052</v>
       </c>
       <c r="T23">
-        <v>0.004099598905303857</v>
+        <v>0.006186732706150774</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H24">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I24">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J24">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.1245676545833</v>
+        <v>27.67414933333333</v>
       </c>
       <c r="N24">
-        <v>26.1245676545833</v>
+        <v>83.022448</v>
       </c>
       <c r="O24">
-        <v>0.3490000804322047</v>
+        <v>0.3267266170554943</v>
       </c>
       <c r="P24">
-        <v>0.3490000804322047</v>
+        <v>0.4145903329593541</v>
       </c>
       <c r="Q24">
-        <v>105.7140471238651</v>
+        <v>254.8345952098426</v>
       </c>
       <c r="R24">
-        <v>105.7140471238651</v>
+        <v>1529.007571259056</v>
       </c>
       <c r="S24">
-        <v>0.2200893431329169</v>
+        <v>0.2566619278556138</v>
       </c>
       <c r="T24">
-        <v>0.2200893431329169</v>
+        <v>0.308722881674712</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H25">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I25">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J25">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.8893682450944</v>
+        <v>22.525075</v>
       </c>
       <c r="N25">
-        <v>14.8893682450944</v>
+        <v>45.05015</v>
       </c>
       <c r="O25">
-        <v>0.1989081995089401</v>
+        <v>0.2659356016702117</v>
       </c>
       <c r="P25">
-        <v>0.1989081995089401</v>
+        <v>0.2249675496001858</v>
       </c>
       <c r="Q25">
-        <v>60.25038948464069</v>
+        <v>207.4198668423875</v>
       </c>
       <c r="R25">
-        <v>60.25038948464069</v>
+        <v>829.67946736955</v>
       </c>
       <c r="S25">
-        <v>0.125437148666153</v>
+        <v>0.2089072045162637</v>
       </c>
       <c r="T25">
-        <v>0.125437148666153</v>
+        <v>0.1675211037848225</v>
       </c>
     </row>
   </sheetData>
